--- a/excel/switchThing.xlsx
+++ b/excel/switchThing.xlsx
@@ -223,7 +223,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="25.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="24.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="25.83"/>
